--- a/data/financial_statements/sofp/MCD.xlsx
+++ b/data/financial_statements/sofp/MCD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2828000000</v>
+        <v>2828300000</v>
       </c>
       <c r="C2">
-        <v>1873000000</v>
+        <v>1872500000</v>
       </c>
       <c r="D2">
-        <v>2336000000</v>
+        <v>2335700000</v>
       </c>
       <c r="E2">
-        <v>4709000000</v>
+        <v>4709200000</v>
       </c>
       <c r="F2">
-        <v>4306000000</v>
+        <v>4305800000</v>
       </c>
       <c r="G2">
         <v>3049400000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1890000000</v>
+        <v>1889900000</v>
       </c>
       <c r="C3">
-        <v>1837000000</v>
+        <v>1836700000</v>
       </c>
       <c r="D3">
-        <v>1674000000</v>
+        <v>1674100000</v>
       </c>
       <c r="E3">
-        <v>1872000000</v>
+        <v>1872400000</v>
       </c>
       <c r="F3">
-        <v>1829000000</v>
+        <v>1828500000</v>
       </c>
       <c r="G3">
         <v>1808300000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>43000000</v>
+        <v>43400000</v>
       </c>
       <c r="C4">
-        <v>43000000</v>
+        <v>43300000</v>
       </c>
       <c r="D4">
-        <v>50000000</v>
+        <v>49600000</v>
       </c>
       <c r="E4">
-        <v>56000000</v>
+        <v>55600000</v>
       </c>
       <c r="F4">
-        <v>50000000</v>
+        <v>50100000</v>
       </c>
       <c r="G4">
         <v>47800000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>979000000</v>
@@ -1030,23 +1141,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>5741000000</v>
+        <v>5740800000</v>
       </c>
       <c r="C6">
-        <v>4919000000</v>
+        <v>4919300000</v>
       </c>
       <c r="D6">
-        <v>4656000000</v>
+        <v>4656400000</v>
       </c>
       <c r="E6">
-        <v>7149000000</v>
+        <v>7148500000</v>
       </c>
       <c r="F6">
-        <v>6796000000</v>
+        <v>6795900000</v>
       </c>
       <c r="G6">
         <v>5701200000</v>
@@ -1152,23 +1263,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>34891000000</v>
+        <v>22698300000</v>
       </c>
       <c r="C7">
-        <v>36129000000</v>
+        <v>23334500000</v>
       </c>
       <c r="D7">
-        <v>37813000000</v>
+        <v>24434700000</v>
       </c>
       <c r="E7">
-        <v>38273000000</v>
+        <v>24720600000</v>
       </c>
       <c r="F7">
-        <v>37958000000</v>
+        <v>24428700000</v>
       </c>
       <c r="G7">
         <v>24620200000</v>
@@ -1274,23 +1385,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1041000000</v>
+        <v>963800000</v>
       </c>
       <c r="C8">
-        <v>1303000000</v>
+        <v>1074000000</v>
       </c>
       <c r="D8">
-        <v>1395000000</v>
+        <v>1177200000</v>
       </c>
       <c r="E8">
-        <v>1438000000</v>
+        <v>1201200000</v>
       </c>
       <c r="F8">
-        <v>1412000000</v>
+        <v>1171400000</v>
       </c>
       <c r="G8">
         <v>1196800000</v>
@@ -1396,23 +1507,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2651000000</v>
+        <v>2651300000</v>
       </c>
       <c r="C9">
-        <v>2722000000</v>
+        <v>2722400000</v>
       </c>
       <c r="D9">
-        <v>2814000000</v>
+        <v>2813900000</v>
       </c>
       <c r="E9">
-        <v>2783000000</v>
+        <v>2782500000</v>
       </c>
       <c r="F9">
-        <v>2744000000</v>
+        <v>2744200000</v>
       </c>
       <c r="G9">
         <v>2778100000</v>
@@ -1518,23 +1629,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>4178000000</v>
+        <v>4254600000</v>
       </c>
       <c r="C10">
-        <v>4174000000</v>
+        <v>4403400000</v>
       </c>
       <c r="D10">
-        <v>4199000000</v>
+        <v>4416900000</v>
       </c>
       <c r="E10">
-        <v>1856000000</v>
+        <v>4449500000</v>
       </c>
       <c r="F10">
-        <v>3817000000</v>
+        <v>4057900000</v>
       </c>
       <c r="G10">
         <v>3889500000</v>
@@ -1640,8 +1751,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>42760800000</v>
@@ -1762,20 +1873,20 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>48502000000</v>
+        <v>48501600000</v>
       </c>
       <c r="C12">
-        <v>49248000000</v>
+        <v>49247800000</v>
       </c>
       <c r="D12">
-        <v>50878000000</v>
+        <v>50877700000</v>
       </c>
       <c r="E12">
-        <v>53854000000</v>
+        <v>53854300000</v>
       </c>
       <c r="F12">
         <v>52727000000</v>
@@ -1884,23 +1995,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>795000000</v>
+        <v>794800000</v>
       </c>
       <c r="C13">
-        <v>739000000</v>
+        <v>739400000</v>
       </c>
       <c r="D13">
-        <v>719000000</v>
+        <v>718600000</v>
       </c>
       <c r="E13">
-        <v>1007000000</v>
+        <v>1006800000</v>
       </c>
       <c r="F13">
-        <v>773000000</v>
+        <v>772600000</v>
       </c>
       <c r="G13">
         <v>730900000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F14">
         <v>1027300000</v>
@@ -2038,8 +2149,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1446500000</v>
@@ -2160,8 +2271,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>655000000</v>
@@ -2176,7 +2287,7 @@
         <v>706000000</v>
       </c>
       <c r="F16">
-        <v>1202000000</v>
+        <v>500000000</v>
       </c>
       <c r="G16">
         <v>500000000</v>
@@ -2234,8 +2345,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>386300000</v>
@@ -2356,8 +2467,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1650000000</v>
@@ -2406,23 +2517,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3486000000</v>
+        <v>3486100000</v>
       </c>
       <c r="C19">
-        <v>3480000000</v>
+        <v>3480100000</v>
       </c>
       <c r="D19">
-        <v>4235000000</v>
+        <v>4234600000</v>
       </c>
       <c r="E19">
         <v>4020000000</v>
       </c>
       <c r="F19">
-        <v>5096000000</v>
+        <v>5095600000</v>
       </c>
       <c r="G19">
         <v>3934800000</v>
@@ -2528,23 +2639,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>46633000000</v>
+        <v>34866200000</v>
       </c>
       <c r="C20">
-        <v>46896000000</v>
+        <v>34576500000</v>
       </c>
       <c r="D20">
-        <v>46861000000</v>
+        <v>33988800000</v>
       </c>
       <c r="E20">
-        <v>48644000000</v>
+        <v>35622700000</v>
       </c>
       <c r="F20">
-        <v>47615000000</v>
+        <v>34628000000</v>
       </c>
       <c r="G20">
         <v>34922600000</v>
@@ -2650,11 +2761,11 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>728000000</v>
+        <v>727800000</v>
       </c>
       <c r="C21">
         <v>733000000</v>
@@ -2663,10 +2774,10 @@
         <v>743000000</v>
       </c>
       <c r="E21">
-        <v>738000000</v>
+        <v>738300000</v>
       </c>
       <c r="F21">
-        <v>720000000</v>
+        <v>720100000</v>
       </c>
       <c r="G21">
         <v>714900000</v>
@@ -2712,23 +2823,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2145000000</v>
+        <v>2145100000</v>
       </c>
       <c r="C22">
-        <v>2250000000</v>
+        <v>2249700000</v>
       </c>
       <c r="D22">
-        <v>2049000000</v>
+        <v>2048500000</v>
       </c>
       <c r="E22">
-        <v>-281000000</v>
+        <v>2075600000</v>
       </c>
       <c r="F22">
-        <v>2046000000</v>
+        <v>2046200000</v>
       </c>
       <c r="G22">
         <v>2067400000</v>
@@ -2834,23 +2945,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>2076000000</v>
+        <v>2075800000</v>
       </c>
       <c r="C23">
-        <v>2259000000</v>
+        <v>2258900000</v>
       </c>
       <c r="D23">
-        <v>2982000000</v>
+        <v>2981800000</v>
       </c>
       <c r="E23">
-        <v>2978000000</v>
+        <v>2977800000</v>
       </c>
       <c r="F23">
-        <v>2926000000</v>
+        <v>2925500000</v>
       </c>
       <c r="G23">
         <v>2942400000</v>
@@ -2956,8 +3067,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>51581700000</v>
@@ -3078,20 +3189,20 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>55068000000</v>
+        <v>55067800000</v>
       </c>
       <c r="C25">
-        <v>55618000000</v>
+        <v>55617600000</v>
       </c>
       <c r="D25">
-        <v>56869000000</v>
+        <v>56868500000</v>
       </c>
       <c r="E25">
-        <v>58455000000</v>
+        <v>58455300000</v>
       </c>
       <c r="F25">
         <v>58402000000</v>
@@ -3200,8 +3311,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>8460100000</v>
@@ -3322,23 +3433,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>17000000</v>
+        <v>16600000</v>
       </c>
       <c r="C27">
-        <v>17000000</v>
+        <v>16600000</v>
       </c>
       <c r="D27">
-        <v>17000000</v>
+        <v>16600000</v>
       </c>
       <c r="E27">
-        <v>17000000</v>
+        <v>16600000</v>
       </c>
       <c r="F27">
-        <v>17000000</v>
+        <v>16600000</v>
       </c>
       <c r="G27">
         <v>16600000</v>
@@ -3444,23 +3555,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>58752000000</v>
       </c>
       <c r="C28">
-        <v>57785000000</v>
+        <v>57785100000</v>
       </c>
       <c r="D28">
         <v>57614000000</v>
       </c>
       <c r="E28">
-        <v>57535000000</v>
+        <v>57534700000</v>
       </c>
       <c r="F28">
-        <v>55898000000</v>
+        <v>55897700000</v>
       </c>
       <c r="G28">
         <v>55739000000</v>
@@ -3566,8 +3677,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>71235200000</v>
@@ -3688,23 +3799,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>-6566000000</v>
+        <v>-6566200000</v>
       </c>
       <c r="C30">
-        <v>-6370000000</v>
+        <v>-6369798000</v>
       </c>
       <c r="D30">
-        <v>-5991000000</v>
+        <v>-5990798000</v>
       </c>
       <c r="E30">
-        <v>-4601000000</v>
+        <v>-4601005000</v>
       </c>
       <c r="F30">
-        <v>-5675000000</v>
+        <v>-5675001000</v>
       </c>
       <c r="G30">
         <v>-5807997000</v>
@@ -3810,17 +3921,17 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>-6566000000</v>
+        <v>-6566200000</v>
       </c>
       <c r="C31">
-        <v>-6370000000</v>
+        <v>-6369800000</v>
       </c>
       <c r="D31">
-        <v>-5991000000</v>
+        <v>-5990800000</v>
       </c>
       <c r="E31">
         <v>-4601000000</v>
@@ -3932,8 +4043,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>48501600000</v>
@@ -4054,8 +4165,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>732400000</v>
@@ -4176,8 +4287,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-9217499000</v>
@@ -4298,23 +4409,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>44460000000</v>
+        <v>32692900000</v>
       </c>
       <c r="C35">
-        <v>45713000000</v>
+        <v>33394000000</v>
       </c>
       <c r="D35">
-        <v>45217000000</v>
+        <v>32345100000</v>
       </c>
       <c r="E35">
-        <v>44641000000</v>
+        <v>31619500000</v>
       </c>
       <c r="F35">
-        <v>44511000000</v>
+        <v>30822200000</v>
       </c>
       <c r="G35">
         <v>32373200000</v>
@@ -4420,23 +4531,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>47288000000</v>
+        <v>35521200000</v>
       </c>
       <c r="C36">
-        <v>47586000000</v>
+        <v>35266500000</v>
       </c>
       <c r="D36">
-        <v>47553000000</v>
+        <v>34680800000</v>
       </c>
       <c r="E36">
-        <v>49350000000</v>
+        <v>36328700000</v>
       </c>
       <c r="F36">
-        <v>48817000000</v>
+        <v>35128000000</v>
       </c>
       <c r="G36">
         <v>35422600000</v>
